--- a/reports/2025-03-31_to_2025-04-29/小農詳細報表/友善耕作詳細報表.xlsx
+++ b/reports/2025-03-31_to_2025-04-29/小農詳細報表/友善耕作詳細報表.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2450</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,74 +586,6 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>收貨員工</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-04 14:44:37</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>塊</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>李小華</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-04 17:23:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>王小明</t>
         </is>
       </c>
     </row>
@@ -668,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,7 +661,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-04 14:43:31</t>
+          <t>2025-04-04 17:49:09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -739,65 +671,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>豬肉</t>
+          <t>煞車油</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>塊</t>
+          <t>瓶</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>王小明</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-04 17:23:26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>午班</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>225</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22500</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>李小華</t>
         </is>
       </c>
     </row>
@@ -812,7 +705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +793,30 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>煞車油</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瓶</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
